--- a/Tank and composite data.xlsx
+++ b/Tank and composite data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Struzinski\Documents\DARE\Sparrow - feed\Netting theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB133D8-1C5F-4EEF-88CF-9118C8B4E205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC106FE-FC34-4803-9D42-555D8610039B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E50B84-5329-44DE-B885-3FF352A99BD9}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>180.8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/Tank and composite data.xlsx
+++ b/Tank and composite data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Struzinski\Documents\DARE\Sparrow - feed\Netting theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC106FE-FC34-4803-9D42-555D8610039B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BA533-26EC-4CAE-916A-A9C8EF74EBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
+    <workbookView xWindow="2124" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <t>1,1,1</t>
   </si>
   <si>
-    <t>18,66,90</t>
+    <t>25,66,86</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>174</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>16.899999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/Tank and composite data.xlsx
+++ b/Tank and composite data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Struzinski\Documents\DARE\Sparrow - feed\Netting theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BA533-26EC-4CAE-916A-A9C8EF74EBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D907199-AC12-4149-97F4-9F5E2C17191E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AEA6481-0AB0-4E25-B197-3D5CC263106A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
     <t>Numbers of layers (-)</t>
   </si>
   <si>
+    <t>18,66,86</t>
+  </si>
+  <si>
     <t>1,1,1</t>
-  </si>
-  <si>
-    <t>25,66,86</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E50B84-5329-44DE-B885-3FF352A99BD9}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>180.8</v>
+        <v>219.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
